--- a/Result/checksun/電子通路業.xlsx
+++ b/Result/checksun/電子通路業.xlsx
@@ -722,16 +722,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-85</v>
+        <v>-16</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -941,16 +941,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>81</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D3" t="n">
         <v>-8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>207</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-10</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1160,20 +1160,20 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="B4" t="n">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c r="C4" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>-16</v>
+        <v>-67</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1379,20 +1379,20 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="B5" t="n">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="C5" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -1598,20 +1598,20 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>154</v>
+      </c>
+      <c r="C6" t="n">
         <v>-1</v>
       </c>
-      <c r="B6" t="n">
-        <v>223</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>-22</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -1817,20 +1817,20 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B7" t="n">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="C7" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -2039,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2266,17 +2266,17 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -2490,20 +2490,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3143,16 +3143,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3362,20 +3362,20 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -3581,20 +3581,20 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -3803,10 +3803,10 @@
         <v>-3</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>-1</v>
@@ -4019,20 +4019,20 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D17" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -4238,13 +4238,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>-1</v>
@@ -4457,20 +4457,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4679,17 +4679,17 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -4895,20 +4895,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5551,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5779,16 +5779,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6006,16 +6006,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6236,17 +6236,17 @@
         <v>-1</v>
       </c>
       <c r="B27" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -6460,16 +6460,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6687,16 +6687,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B29" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
         <v>-1</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6914,16 +6914,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D30" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -7141,10 +7141,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -7368,20 +7368,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -8045,20 +8045,20 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="B35" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D35" t="n">
-        <v>-17</v>
+        <v>-7</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -8268,20 +8268,20 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="B36" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>-47</v>
+        <v>-7</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -8491,20 +8491,20 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="B37" t="n">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="C37" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8714,20 +8714,20 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="B38" t="n">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>-1</v>
+        <v>-40</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -8937,20 +8937,20 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="B39" t="n">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="D39" t="n">
-        <v>-29</v>
+        <v>-11</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -9160,20 +9160,20 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -9383,20 +9383,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41" t="n">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="D41" t="n">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -9606,20 +9606,20 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9829,20 +9829,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -10494,16 +10494,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -10717,16 +10717,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -10936,20 +10936,20 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B48" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C48" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -11155,20 +11155,20 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B49" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -11374,20 +11374,20 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B50" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -11593,16 +11593,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C51" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -11812,16 +11812,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -12034,17 +12034,17 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -12250,20 +12250,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12903,20 +12903,20 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -13122,20 +13122,20 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -13344,10 +13344,10 @@
         <v>5</v>
       </c>
       <c r="B59" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>11</v>
@@ -13560,16 +13560,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D60" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -13782,13 +13782,13 @@
         <v>4</v>
       </c>
       <c r="B61" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -13998,20 +13998,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -14217,20 +14217,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C63" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -14436,20 +14436,20 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -14655,20 +14655,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -15308,20 +15308,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -15525,20 +15525,20 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D69" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -15742,20 +15742,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -15959,20 +15959,20 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -16616,7 +16616,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -16823,20 +16823,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -17043,13 +17043,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -17687,13 +17687,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>2</v>
@@ -17906,16 +17906,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D80" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -18125,13 +18125,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -18344,13 +18344,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -18563,20 +18563,20 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -18782,16 +18782,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -19001,20 +19001,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
+        <v>5</v>
+      </c>
+      <c r="B85" t="n">
         <v>1</v>
       </c>
-      <c r="B85" t="n">
-        <v>2</v>
-      </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -19220,20 +19220,20 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -19439,20 +19439,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -20092,16 +20092,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B90" t="n">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -20315,20 +20315,20 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" t="n">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -20538,20 +20538,20 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B92" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C92" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -20761,10 +20761,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -20984,20 +20984,20 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D94" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -21207,16 +21207,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B95" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -21430,20 +21430,20 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B96" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D96" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -21653,20 +21653,20 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -21876,20 +21876,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -22541,16 +22541,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -22760,20 +22760,20 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C102" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -22982,17 +22982,17 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C103" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -23198,20 +23198,20 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B104" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D104" t="n">
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -23420,13 +23420,13 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D105" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -23636,20 +23636,20 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -23855,20 +23855,20 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -24077,13 +24077,13 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -24293,20 +24293,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24946,13 +24946,13 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>-1</v>
@@ -25177,16 +25177,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -25404,13 +25404,13 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B114" t="n">
         <v>2</v>
       </c>
-      <c r="B114" t="n">
-        <v>3</v>
-      </c>
       <c r="C114" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -25623,16 +25623,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -26061,7 +26061,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -26070,7 +26070,7 @@
         <v>5</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -26280,16 +26280,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -26499,13 +26499,13 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -26718,20 +26718,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -27374,7 +27374,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -28239,16 +28239,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -28456,16 +28456,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -28676,17 +28676,17 @@
         <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -28893,10 +28893,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -29107,20 +29107,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -29754,20 +29754,20 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B134" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -29977,20 +29977,20 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C135" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>-14</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -30199,13 +30199,13 @@
         <v>2</v>
       </c>
       <c r="B136" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C136" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -30415,20 +30415,20 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B137" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -30634,20 +30634,20 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B138" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
         <v>15</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -30853,16 +30853,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B139" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -31072,20 +31072,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
         <v>-1</v>
       </c>
-      <c r="B140" t="n">
-        <v>14</v>
-      </c>
-      <c r="C140" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>14</v>
-      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -31294,17 +31294,17 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -31510,20 +31510,20 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -32163,16 +32163,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B145" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C145" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D145" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -32386,20 +32386,20 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B146" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C146" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -32609,20 +32609,20 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B147" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C147" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="D147" t="n">
-        <v>-27</v>
+        <v>-1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -32835,17 +32835,17 @@
         <v>4</v>
       </c>
       <c r="B148" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C148" t="n">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -33055,20 +33055,20 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B149" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C149" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>3</v>
+        <v>-29</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -33278,16 +33278,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B150" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -33501,20 +33501,20 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B151" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C151" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="D151" t="n">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -33724,20 +33724,20 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -33947,20 +33947,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -34612,20 +34612,20 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -35278,7 +35278,7 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>-26</v>
+        <v>-13</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -35487,13 +35487,13 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -35706,13 +35706,13 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -35923,17 +35923,17 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D162" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -36139,20 +36139,20 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -36358,20 +36358,20 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -37014,10 +37014,10 @@
         <v>2</v>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -37449,16 +37449,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -37668,13 +37668,13 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D170" t="n">
         <v>-1</v>
@@ -37887,20 +37887,20 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -38106,13 +38106,13 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -38325,20 +38325,20 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B173" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C173" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -38544,20 +38544,20 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -38763,20 +38763,20 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -39416,20 +39416,20 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
+        <v>3</v>
+      </c>
+      <c r="B178" t="n">
         <v>2</v>
       </c>
-      <c r="B178" t="n">
-        <v>5</v>
-      </c>
       <c r="C178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D178" t="n">
         <v>-1</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -39638,7 +39638,7 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -39857,10 +39857,10 @@
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C180" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>-1</v>
@@ -40073,16 +40073,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B181" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D181" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -40295,17 +40295,17 @@
         <v>2</v>
       </c>
       <c r="B182" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D182" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -40511,20 +40511,20 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
+        <v>3</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2</v>
+      </c>
+      <c r="D183" t="n">
         <v>-2</v>
       </c>
-      <c r="B183" t="n">
-        <v>16</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1</v>
-      </c>
-      <c r="D183" t="n">
-        <v>-43</v>
-      </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -40730,20 +40730,20 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B184" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C184" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D184" t="n">
-        <v>59</v>
+        <v>-6</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -40949,20 +40949,20 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -41168,20 +41168,20 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -41821,20 +41821,20 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B189" t="n">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D189" t="n">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -42047,7 +42047,7 @@
         <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
@@ -42270,13 +42270,13 @@
         <v>-1</v>
       </c>
       <c r="B191" t="n">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="C191" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -42490,16 +42490,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B192" t="n">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="C192" t="n">
         <v>-2</v>
       </c>
       <c r="D192" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -42721,16 +42721,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -42955,13 +42955,13 @@
         <v>1</v>
       </c>
       <c r="B194" t="n">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D194" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -43183,20 +43183,20 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B195" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D195" t="n">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -43417,17 +43417,17 @@
         <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -43645,20 +43645,20 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -44334,20 +44334,20 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B200" t="n">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D200" t="n">
         <v>1</v>
       </c>
-      <c r="D200" t="n">
-        <v>6</v>
-      </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -44557,16 +44557,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B201" t="n">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -44780,20 +44780,20 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B202" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D202" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -45006,17 +45006,17 @@
         <v>3</v>
       </c>
       <c r="B203" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D203" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -45226,20 +45226,20 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B204" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -45452,10 +45452,10 @@
         <v>0</v>
       </c>
       <c r="B205" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
         <v>6</v>
@@ -45672,20 +45672,20 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B206" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C206" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D206" t="n">
-        <v>84</v>
+        <v>-14</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -45895,20 +45895,20 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -46118,20 +46118,20 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -46783,20 +46783,20 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
+        <v>5</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5</v>
+      </c>
+      <c r="C211" t="n">
         <v>4</v>
-      </c>
-      <c r="B211" t="n">
-        <v>14</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0</v>
       </c>
       <c r="D211" t="n">
         <v>1</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -47006,20 +47006,20 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
+        <v>1</v>
+      </c>
+      <c r="B212" t="n">
         <v>4</v>
       </c>
-      <c r="B212" t="n">
-        <v>13</v>
-      </c>
       <c r="C212" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -47228,7 +47228,7 @@
         <v>0</v>
       </c>
       <c r="B213" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -47447,7 +47447,7 @@
         <v>0</v>
       </c>
       <c r="B214" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C214" t="n">
         <v>-2</v>
@@ -47666,17 +47666,17 @@
         <v>2</v>
       </c>
       <c r="B215" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>5</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -47882,20 +47882,20 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B216" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C216" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -48101,20 +48101,20 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B217" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C217" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -48320,20 +48320,20 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -48539,20 +48539,20 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -49192,20 +49192,20 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="B222" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C222" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D222" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -49411,20 +49411,20 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="B223" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C223" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D223" t="n">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -49630,20 +49630,20 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="B224" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -49849,20 +49849,20 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="B225" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C225" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D225" t="n">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -50068,20 +50068,20 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B226" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C226" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D226" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -50287,20 +50287,20 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
+        <v>4</v>
+      </c>
+      <c r="B227" t="n">
+        <v>25</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
         <v>2</v>
       </c>
-      <c r="B227" t="n">
-        <v>32</v>
-      </c>
-      <c r="C227" t="n">
-        <v>3</v>
-      </c>
-      <c r="D227" t="n">
-        <v>-2</v>
-      </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -50506,20 +50506,20 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B228" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C228" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D228" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -50725,20 +50725,20 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -50944,20 +50944,20 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -51600,10 +51600,10 @@
         <v>-1</v>
       </c>
       <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
         <v>1</v>
-      </c>
-      <c r="C233" t="n">
-        <v>0</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
@@ -51814,13 +51814,13 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -52034,10 +52034,10 @@
         <v>0</v>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
@@ -52248,13 +52248,13 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -52468,10 +52468,10 @@
         <v>1</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D237" t="n">
         <v>-1</v>
@@ -52682,20 +52682,20 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -52899,16 +52899,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
         <v>2</v>
       </c>
-      <c r="C239" t="n">
-        <v>-2</v>
-      </c>
       <c r="D239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -53116,20 +53116,20 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -53333,20 +53333,20 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -53980,20 +53980,20 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B244" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D244" t="n">
         <v>0</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -54203,16 +54203,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B245" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -54422,13 +54422,13 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B246" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C246" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D246" t="n">
         <v>0</v>
@@ -54641,10 +54641,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B247" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C247" t="n">
         <v>-1</v>
@@ -54860,13 +54860,13 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B248" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
@@ -55079,16 +55079,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B249" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C249" t="n">
         <v>2</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -55298,20 +55298,20 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
+        <v>1</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="n">
         <v>-1</v>
       </c>
-      <c r="B250" t="n">
-        <v>5</v>
-      </c>
-      <c r="C250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D250" t="n">
-        <v>5</v>
-      </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -55520,17 +55520,17 @@
         <v>0</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -55736,20 +55736,20 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -56392,13 +56392,13 @@
         <v>0</v>
       </c>
       <c r="B255" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D255" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -56608,16 +56608,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B256" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -56827,16 +56827,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
+        <v>0</v>
+      </c>
+      <c r="B257" t="n">
+        <v>6</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
         <v>-1</v>
-      </c>
-      <c r="B257" t="n">
-        <v>10</v>
-      </c>
-      <c r="C257" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D257" t="n">
-        <v>1</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -57049,13 +57049,13 @@
         <v>0</v>
       </c>
       <c r="B258" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C258" t="n">
         <v>3</v>
       </c>
       <c r="D258" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -57268,17 +57268,17 @@
         <v>-3</v>
       </c>
       <c r="B259" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C259" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -57484,16 +57484,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B260" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D260" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -57703,20 +57703,20 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="B261" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C261" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="D261" t="n">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -57922,13 +57922,13 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -58141,20 +58141,20 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -58797,13 +58797,13 @@
         <v>0</v>
       </c>
       <c r="B266" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -59014,13 +59014,13 @@
         <v>0</v>
       </c>
       <c r="B267" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
       </c>
       <c r="D267" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -59231,13 +59231,13 @@
         <v>0</v>
       </c>
       <c r="B268" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -59448,13 +59448,13 @@
         <v>0</v>
       </c>
       <c r="B269" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -59662,13 +59662,13 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B270" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D270" t="n">
         <v>0</v>
@@ -59879,16 +59879,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B271" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
       </c>
       <c r="D271" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -60096,20 +60096,20 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B272" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C272" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D272" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -60313,16 +60313,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -60530,20 +60530,20 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -61177,20 +61177,20 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
+        <v>2</v>
+      </c>
+      <c r="B277" t="n">
+        <v>10</v>
+      </c>
+      <c r="C277" t="n">
         <v>1</v>
       </c>
-      <c r="B277" t="n">
-        <v>13</v>
-      </c>
-      <c r="C277" t="n">
-        <v>0</v>
-      </c>
       <c r="D277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -61403,17 +61403,17 @@
         <v>1</v>
       </c>
       <c r="B278" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
       </c>
       <c r="D278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -61622,10 +61622,10 @@
         <v>0</v>
       </c>
       <c r="B279" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279" t="n">
         <v>2</v>
@@ -61838,10 +61838,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B280" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C280" t="n">
         <v>-1</v>
@@ -62057,16 +62057,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B281" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D281" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -62276,13 +62276,13 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B282" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D282" t="n">
         <v>-1</v>
@@ -62495,20 +62495,20 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
+        <v>1</v>
+      </c>
+      <c r="B283" t="n">
+        <v>4</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="n">
         <v>-1</v>
       </c>
-      <c r="B283" t="n">
-        <v>9</v>
-      </c>
-      <c r="C283" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D283" t="n">
-        <v>9</v>
-      </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -62717,17 +62717,17 @@
         <v>0</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -62933,20 +62933,20 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -63586,16 +63586,16 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B288" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C288" t="n">
         <v>-1</v>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -63815,16 +63815,16 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B289" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C289" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D289" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -64044,20 +64044,20 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B290" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C290" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="D290" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -64273,16 +64273,16 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="B291" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
       </c>
       <c r="D291" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -64502,20 +64502,20 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="B292" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C292" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="D292" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -64734,17 +64734,17 @@
         <v>7</v>
       </c>
       <c r="B293" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C293" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D293" t="n">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -64960,20 +64960,20 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B294" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C294" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D294" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -65189,20 +65189,20 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -65418,20 +65418,20 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -66101,16 +66101,16 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B299" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C299" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -66322,16 +66322,16 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B300" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C300" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D300" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -66539,13 +66539,13 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="B301" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C301" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D301" t="n">
         <v>-3</v>
@@ -66756,20 +66756,20 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B302" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C302" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D302" t="n">
         <v>-1</v>
       </c>
-      <c r="D302" t="n">
-        <v>0</v>
-      </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F302" t="inlineStr"/>
@@ -66973,16 +66973,16 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B303" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D303" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -67190,16 +67190,16 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B304" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D304" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -67407,20 +67407,20 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B305" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D305" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F305" t="inlineStr"/>
@@ -67627,17 +67627,17 @@
         <v>0</v>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F306" t="inlineStr"/>
@@ -67841,20 +67841,20 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F307" t="inlineStr"/>
@@ -68488,20 +68488,20 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B310" t="n">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="C310" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="D310" t="n">
-        <v>-53</v>
+        <v>-14</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -68711,20 +68711,20 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B311" t="n">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="C311" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D311" t="n">
-        <v>-1</v>
+        <v>-89</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -68934,20 +68934,20 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="B312" t="n">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="C312" t="n">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="D312" t="n">
-        <v>3</v>
+        <v>-51</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -69160,13 +69160,13 @@
         <v>4</v>
       </c>
       <c r="B313" t="n">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D313" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -69388,16 +69388,16 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B314" t="n">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C314" t="n">
         <v>-4</v>
       </c>
       <c r="D314" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -69619,13 +69619,13 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B315" t="n">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C315" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D315" t="n">
         <v>58</v>
@@ -69853,17 +69853,17 @@
         <v>-1</v>
       </c>
       <c r="B316" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C316" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D316" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -70073,20 +70073,20 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -70299,17 +70299,17 @@
         <v>0</v>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -70964,10 +70964,10 @@
         <v>1</v>
       </c>
       <c r="B321" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D321" t="n">
         <v>0</v>
@@ -71192,16 +71192,16 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B322" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D322" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -71418,13 +71418,13 @@
         <v>0</v>
       </c>
       <c r="B323" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C323" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D323" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -71638,16 +71638,16 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B324" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C324" t="n">
         <v>-1</v>
       </c>
       <c r="D324" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -71861,13 +71861,13 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B325" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C325" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D325" t="n">
         <v>-1</v>
@@ -72084,16 +72084,16 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B326" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -72307,20 +72307,20 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B327" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C327" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D327" t="n">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -72530,16 +72530,16 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -72753,20 +72753,20 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -73421,13 +73421,13 @@
         <v>1</v>
       </c>
       <c r="B332" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D332" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -73637,16 +73637,16 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B333" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D333" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -73859,13 +73859,13 @@
         <v>0</v>
       </c>
       <c r="B334" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C334" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D334" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -74075,20 +74075,20 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B335" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D335" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F335" t="inlineStr"/>
@@ -74297,13 +74297,13 @@
         <v>0</v>
       </c>
       <c r="B336" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D336" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -74513,16 +74513,16 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B337" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D337" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -74735,17 +74735,17 @@
         <v>0</v>
       </c>
       <c r="B338" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
       </c>
       <c r="D338" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F338" t="inlineStr"/>
@@ -74954,13 +74954,13 @@
         <v>0</v>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -75170,20 +75170,20 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D340" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F340" t="inlineStr"/>
@@ -75823,20 +75823,20 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B343" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C343" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D343" t="n">
-        <v>-31</v>
+        <v>2</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F343" t="inlineStr"/>
@@ -76042,20 +76042,20 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B344" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C344" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D344" t="n">
-        <v>-35</v>
+        <v>-3</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F344" t="inlineStr"/>
@@ -76261,20 +76261,20 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B345" t="n">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="C345" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="D345" t="n">
-        <v>-89</v>
+        <v>-29</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F345" t="inlineStr"/>
@@ -76483,17 +76483,17 @@
         <v>3</v>
       </c>
       <c r="B346" t="n">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D346" t="n">
-        <v>-13</v>
+        <v>-36</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F346" t="inlineStr"/>
@@ -76699,16 +76699,16 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B347" t="n">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="C347" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D347" t="n">
-        <v>-13</v>
+        <v>-89</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -76918,20 +76918,20 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B348" t="n">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D348" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F348" t="inlineStr"/>
@@ -77137,20 +77137,20 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B349" t="n">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C349" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="D349" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F349" t="inlineStr"/>
@@ -77356,20 +77356,20 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F350" t="inlineStr"/>
@@ -77575,20 +77575,20 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F351" t="inlineStr"/>
@@ -78228,20 +78228,20 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B354" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C354" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D354" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -78451,16 +78451,16 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B355" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -78673,13 +78673,13 @@
         <v>-1</v>
       </c>
       <c r="B356" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C356" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -78889,16 +78889,16 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B357" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D357" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -79111,10 +79111,10 @@
         <v>0</v>
       </c>
       <c r="B358" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D358" t="n">
         <v>-1</v>
@@ -79327,20 +79327,20 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B359" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D359" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F359" t="inlineStr"/>
@@ -79546,20 +79546,20 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B360" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C360" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D360" t="n">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F360" t="inlineStr"/>
@@ -79768,17 +79768,17 @@
         <v>0</v>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F361" t="inlineStr"/>
@@ -79984,20 +79984,20 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F362" t="inlineStr"/>
@@ -80640,13 +80640,13 @@
         <v>3</v>
       </c>
       <c r="B365" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C365" t="n">
         <v>2</v>
       </c>
       <c r="D365" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -80863,13 +80863,13 @@
         <v>1</v>
       </c>
       <c r="B366" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C366" t="n">
         <v>-1</v>
       </c>
       <c r="D366" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -81086,13 +81086,13 @@
         <v>2</v>
       </c>
       <c r="B367" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C367" t="n">
         <v>2</v>
       </c>
       <c r="D367" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -81309,13 +81309,13 @@
         <v>0</v>
       </c>
       <c r="B368" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
       </c>
       <c r="D368" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -81532,17 +81532,17 @@
         <v>0</v>
       </c>
       <c r="B369" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D369" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -81752,16 +81752,16 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B370" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D370" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -81978,17 +81978,17 @@
         <v>0</v>
       </c>
       <c r="B371" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
       </c>
       <c r="D371" t="n">
-        <v>38</v>
+        <v>-4</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -82201,13 +82201,13 @@
         <v>0</v>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -82421,20 +82421,20 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D373" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -83089,13 +83089,13 @@
         <v>2</v>
       </c>
       <c r="B376" t="n">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="C376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D376" t="n">
-        <v>-17</v>
+        <v>-11</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -83305,20 +83305,20 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B377" t="n">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D377" t="n">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F377" t="inlineStr"/>
@@ -83527,13 +83527,13 @@
         <v>0</v>
       </c>
       <c r="B378" t="n">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="C378" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D378" t="n">
-        <v>-16</v>
+        <v>-11</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -83743,20 +83743,20 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B379" t="n">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
       </c>
       <c r="D379" t="n">
-        <v>-47</v>
+        <v>-1</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F379" t="inlineStr"/>
@@ -83962,20 +83962,20 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B380" t="n">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D380" t="n">
-        <v>-41</v>
+        <v>-26</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F380" t="inlineStr"/>
@@ -84181,20 +84181,20 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B381" t="n">
-        <v>356</v>
+        <v>177</v>
       </c>
       <c r="C381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D381" t="n">
-        <v>13</v>
+        <v>-40</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F381" t="inlineStr"/>
@@ -84400,20 +84400,20 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B382" t="n">
-        <v>343</v>
+        <v>217</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
       </c>
       <c r="D382" t="n">
-        <v>343</v>
+        <v>-26</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F382" t="inlineStr"/>
@@ -84619,20 +84619,20 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F383" t="inlineStr"/>
@@ -84838,20 +84838,20 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D384" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F384" t="inlineStr"/>
